--- a/files_params/ssrs_reports_spdu.xlsx
+++ b/files_params/ssrs_reports_spdu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyProjects\Python\_for-kvartplata\ssrs\files_params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyProjects\Python\_for-kvartplata\py-ssrs\files_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625B0524-7574-40A4-9ADB-B5F996E447DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19721CD-16B3-497B-AEA9-D75739209330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>Оборотка по лицевым</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>folder</t>
-  </si>
-  <si>
-    <t>report_name</t>
   </si>
   <si>
     <t>params</t>
@@ -128,6 +122,15 @@
   </si>
   <si>
     <t>tip_str=137,140,142;sup_id=0</t>
+  </si>
+  <si>
+    <t>ssrs_folder</t>
+  </si>
+  <si>
+    <t>ssrs_report_name</t>
+  </si>
+  <si>
+    <t>C:\reports\webserv\py-ssrs\Готовые отчёты</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -242,12 +252,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -532,7 +536,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,256 +551,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -804,8 +852,8 @@
     <mergeCell ref="J2:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{EA8B3637-A43E-4038-9269-07671E2D33C6}"/>
-    <hyperlink ref="F3:F12" r:id="rId2" display="mpuzanov@mail.ru" xr:uid="{F7CD5631-58AA-4FED-B50A-61D338FC9D2B}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{0C537B87-EF01-4F42-BA63-8A977565917A}"/>
+    <hyperlink ref="F3:F12" r:id="rId2" display="mpuzanov@mail.ru" xr:uid="{9401F694-CF57-443C-9C8C-C763CE515E85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
